--- a/code_generate_figures/data/ranks_all_spt_DIA_ensemble_mv.xlsx
+++ b/code_generate_figures/data/ranks_all_spt_DIA_ensemble_mv.xlsx
@@ -119,7 +119,7 @@
     <t xml:space="preserve">LFQ|dlfq</t>
   </si>
   <si>
-    <t xml:space="preserve">LFQ|dlfq||D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_limma_spt_LFQ_Impseq_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_Impseq_.csv</t>
+    <t xml:space="preserve">LFQ|dlfq||D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_LFQ_Impseq_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_MinDet_.csv</t>
   </si>
   <si>
     <t xml:space="preserve">ensemble_set_max||LFQ|dlfq</t>
@@ -146,7 +146,7 @@
     <t xml:space="preserve">LFQ|top1</t>
   </si>
   <si>
-    <t xml:space="preserve">LFQ|top1||D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_limma_spt_LFQ_Impseq_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_limma_spt_top1_Impseq_.csv</t>
+    <t xml:space="preserve">LFQ|top1||D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_LFQ_Impseq_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_limma_spt_top1_Impseq_.csv</t>
   </si>
   <si>
     <t xml:space="preserve">ensemble_set_max||LFQ|top1</t>
@@ -161,7 +161,7 @@
     <t xml:space="preserve">LFQ|top3</t>
   </si>
   <si>
-    <t xml:space="preserve">LFQ|top3||D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_limma_spt_LFQ_Impseq_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_top3_nbavg_.csv</t>
+    <t xml:space="preserve">LFQ|top3||D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_LFQ_Impseq_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_top3_nbavg_.csv</t>
   </si>
   <si>
     <t xml:space="preserve">ensemble_set_max||LFQ|top3</t>
@@ -176,7 +176,7 @@
     <t xml:space="preserve">dlfq|top1</t>
   </si>
   <si>
-    <t xml:space="preserve">dlfq|top1||D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_limma_spt_top1_Impseq_.csv</t>
+    <t xml:space="preserve">dlfq|top1||D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_MinDet_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_limma_spt_top1_Impseq_.csv</t>
   </si>
   <si>
     <t xml:space="preserve">ensemble_set_max||dlfq|top1</t>
@@ -191,7 +191,7 @@
     <t xml:space="preserve">dlfq|top3</t>
   </si>
   <si>
-    <t xml:space="preserve">dlfq|top3||D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_top3_nbavg_.csv</t>
+    <t xml:space="preserve">dlfq|top3||D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_MinDet_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_top3_nbavg_.csv</t>
   </si>
   <si>
     <t xml:space="preserve">ensemble_set_max||dlfq|top3</t>
@@ -221,7 +221,7 @@
     <t xml:space="preserve">LFQ|dlfq|top1</t>
   </si>
   <si>
-    <t xml:space="preserve">LFQ|dlfq|top1||D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_limma_spt_LFQ_Impseq_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_limma_spt_top1_Impseq_.csv</t>
+    <t xml:space="preserve">LFQ|dlfq|top1||D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_LFQ_Impseq_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_MinDet_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_limma_spt_top1_Impseq_.csv</t>
   </si>
   <si>
     <t xml:space="preserve">ensemble_set_max||LFQ|dlfq|top1</t>
@@ -236,7 +236,7 @@
     <t xml:space="preserve">LFQ|dlfq|top3</t>
   </si>
   <si>
-    <t xml:space="preserve">LFQ|dlfq|top3||D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_limma_spt_LFQ_Impseq_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_top3_nbavg_.csv</t>
+    <t xml:space="preserve">LFQ|dlfq|top3||D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_LFQ_Impseq_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_MinDet_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_top3_nbavg_.csv</t>
   </si>
   <si>
     <t xml:space="preserve">ensemble_set_max||LFQ|dlfq|top3</t>
@@ -251,7 +251,7 @@
     <t xml:space="preserve">LFQ|top1|top3</t>
   </si>
   <si>
-    <t xml:space="preserve">LFQ|top1|top3||D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_limma_spt_LFQ_Impseq_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_limma_spt_top1_Impseq_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_top3_nbavg_.csv</t>
+    <t xml:space="preserve">LFQ|top1|top3||D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_LFQ_Impseq_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_limma_spt_top1_Impseq_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_top3_nbavg_.csv</t>
   </si>
   <si>
     <t xml:space="preserve">ensemble_set_max||LFQ|top1|top3</t>
@@ -266,7 +266,7 @@
     <t xml:space="preserve">dlfq|top1|top3</t>
   </si>
   <si>
-    <t xml:space="preserve">dlfq|top1|top3||D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_limma_spt_top1_Impseq_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_top3_nbavg_.csv</t>
+    <t xml:space="preserve">dlfq|top1|top3||D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_MinDet_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_limma_spt_top1_Impseq_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_top3_nbavg_.csv</t>
   </si>
   <si>
     <t xml:space="preserve">ensemble_set_max||dlfq|top1|top3</t>
@@ -281,7 +281,7 @@
     <t xml:space="preserve">LFQ|dlfq|top1|top3</t>
   </si>
   <si>
-    <t xml:space="preserve">LFQ|dlfq|top1|top3||D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_limma_spt_LFQ_Impseq_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_Impseq_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_limma_spt_top1_Impseq_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_top3_nbavg_.csv</t>
+    <t xml:space="preserve">LFQ|dlfq|top1|top3||D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_LFQ_Impseq_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_dlfq_MinDet_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_limma_spt_top1_Impseq_.csv D:/data/benchmark/benchmark_res/DIA/spt/HEqe408_DIA/HEqe408_DIA_ROTS_spt_top3_nbavg_.csv</t>
   </si>
   <si>
     <t xml:space="preserve">ensemble_set_max||LFQ|dlfq|top1|top3</t>
@@ -812,70 +812,70 @@
         <v>35</v>
       </c>
       <c r="H2" t="n">
-        <v>0.704318976470588</v>
+        <v>0.7803377</v>
       </c>
       <c r="I2" t="n">
-        <v>0.70674665</v>
+        <v>0.7749575</v>
       </c>
       <c r="J2" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="K2" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="L2" t="n">
-        <v>0.776525488235294</v>
+        <v>0.841706558823529</v>
       </c>
       <c r="M2" t="n">
-        <v>0.800726</v>
+        <v>0.8845054</v>
       </c>
       <c r="N2" t="n">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="O2" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="P2" t="n">
-        <v>0.806001405882353</v>
+        <v>0.862494747058824</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.829399</v>
+        <v>0.9139406</v>
       </c>
       <c r="R2" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="S2" t="n">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="T2" t="n">
-        <v>0.782624988235294</v>
+        <v>0.622750317647059</v>
       </c>
       <c r="U2" t="n">
-        <v>0.81014595</v>
+        <v>0.5</v>
       </c>
       <c r="V2" t="n">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="W2" t="n">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="X2" t="n">
-        <v>0.64852803</v>
+        <v>0.286306170588235</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.75921255</v>
+        <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="AA2" t="n">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="AB2" t="n">
-        <v>21</v>
+        <v>18.2</v>
       </c>
       <c r="AC2" t="n">
-        <v>16.6</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="3">
@@ -901,70 +901,70 @@
         <v>35</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7896892</v>
+        <v>0.778707058823529</v>
       </c>
       <c r="I3" t="n">
-        <v>0.78154215</v>
+        <v>0.7816358</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K3" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="L3" t="n">
-        <v>0.840888794117647</v>
+        <v>0.836290188235294</v>
       </c>
       <c r="M3" t="n">
-        <v>0.8521739</v>
+        <v>0.8719204</v>
       </c>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="O3" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="P3" t="n">
-        <v>0.859182052941176</v>
+        <v>0.854551494117647</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.8776398</v>
+        <v>0.8967825</v>
       </c>
       <c r="R3" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="S3" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="T3" t="n">
-        <v>0.713979111764706</v>
+        <v>0.595849735294118</v>
       </c>
       <c r="U3" t="n">
-        <v>0.7373768</v>
+        <v>0.5</v>
       </c>
       <c r="V3" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="W3" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X3" t="n">
-        <v>0.468891141176471</v>
+        <v>0.228807758823529</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.513072</v>
+        <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AA3" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="AB3" t="n">
-        <v>17</v>
+        <v>23.6</v>
       </c>
       <c r="AC3" t="n">
-        <v>16.8</v>
+        <v>21.8</v>
       </c>
     </row>
     <row r="4">
@@ -990,70 +990,70 @@
         <v>35</v>
       </c>
       <c r="H4" t="n">
-        <v>0.787270582352941</v>
+        <v>0.784850252941176</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7835034</v>
+        <v>0.7824313</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="L4" t="n">
-        <v>0.838632341176471</v>
+        <v>0.839693129411765</v>
       </c>
       <c r="M4" t="n">
-        <v>0.85284935</v>
+        <v>0.8754737</v>
       </c>
       <c r="N4" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="O4" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="P4" t="n">
-        <v>0.856989041176471</v>
+        <v>0.858380488235294</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.87773235</v>
+        <v>0.9006757</v>
       </c>
       <c r="R4" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="S4" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="T4" t="n">
-        <v>0.714272623529412</v>
+        <v>0.596336211764706</v>
       </c>
       <c r="U4" t="n">
-        <v>0.73752355</v>
+        <v>0.5</v>
       </c>
       <c r="V4" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="W4" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="X4" t="n">
-        <v>0.4714522</v>
+        <v>0.230708747058824</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.5188389</v>
+        <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="AA4" t="n">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="AB4" t="n">
-        <v>17.4</v>
+        <v>21.4</v>
       </c>
       <c r="AC4" t="n">
-        <v>15.8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
@@ -1079,70 +1079,70 @@
         <v>44</v>
       </c>
       <c r="H5" t="n">
-        <v>0.686820958823529</v>
+        <v>0.696881152941176</v>
       </c>
       <c r="I5" t="n">
-        <v>0.68714915</v>
+        <v>0.6555561</v>
       </c>
       <c r="J5" t="n">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="K5" t="n">
+        <v>52</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.7908083</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.7946679</v>
+      </c>
+      <c r="N5" t="n">
+        <v>41</v>
+      </c>
+      <c r="O5" t="n">
         <v>38</v>
       </c>
-      <c r="L5" t="n">
-        <v>0.750188370588235</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.7403417</v>
-      </c>
-      <c r="N5" t="n">
-        <v>42</v>
-      </c>
-      <c r="O5" t="n">
-        <v>37</v>
-      </c>
       <c r="P5" t="n">
-        <v>0.771813394117647</v>
+        <v>0.833143441176471</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.73380475</v>
+        <v>0.8364257</v>
       </c>
       <c r="R5" t="n">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="S5" t="n">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="T5" t="n">
-        <v>0.739055523529412</v>
+        <v>0.7643373</v>
       </c>
       <c r="U5" t="n">
-        <v>0.72461125</v>
+        <v>0.7576169</v>
       </c>
       <c r="V5" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="W5" t="n">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="X5" t="n">
-        <v>0.630596144117647</v>
+        <v>0.690015205882353</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.6863582</v>
+        <v>0.8482734</v>
       </c>
       <c r="Z5" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AA5" t="n">
         <v>21</v>
       </c>
       <c r="AB5" t="n">
-        <v>36.4</v>
+        <v>36</v>
       </c>
       <c r="AC5" t="n">
-        <v>36</v>
+        <v>33.6</v>
       </c>
     </row>
     <row r="6">
@@ -1168,70 +1168,70 @@
         <v>44</v>
       </c>
       <c r="H6" t="n">
-        <v>0.654950352941176</v>
+        <v>0.738832152941176</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6805562</v>
+        <v>0.7143485</v>
       </c>
       <c r="J6" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="K6" t="n">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="L6" t="n">
-        <v>0.693167241176471</v>
+        <v>0.784642417647059</v>
       </c>
       <c r="M6" t="n">
-        <v>0.70495125</v>
+        <v>0.7828541</v>
       </c>
       <c r="N6" t="n">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="O6" t="n">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="P6" t="n">
-        <v>0.703747217647059</v>
+        <v>0.797089829411765</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.7092925</v>
+        <v>0.7934007</v>
       </c>
       <c r="R6" t="n">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="S6" t="n">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="T6" t="n">
-        <v>0.708089441176471</v>
+        <v>0.581515829411765</v>
       </c>
       <c r="U6" t="n">
-        <v>0.72485305</v>
+        <v>0.5</v>
       </c>
       <c r="V6" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="W6" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="X6" t="n">
-        <v>0.479158329411765</v>
+        <v>0.206372441176471</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.54794755</v>
+        <v>0</v>
       </c>
       <c r="Z6" t="n">
+        <v>46</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>43.6</v>
+      </c>
+      <c r="AC6" t="n">
         <v>39</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>40</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>47.2</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>46.2</v>
       </c>
     </row>
     <row r="7">
@@ -1257,70 +1257,70 @@
         <v>44</v>
       </c>
       <c r="H7" t="n">
-        <v>0.659179888235294</v>
+        <v>0.742302147058824</v>
       </c>
       <c r="I7" t="n">
-        <v>0.68824635</v>
+        <v>0.7187999</v>
       </c>
       <c r="J7" t="n">
+        <v>34</v>
+      </c>
+      <c r="K7" t="n">
+        <v>34</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.791399705882353</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.783255</v>
+      </c>
+      <c r="N7" t="n">
+        <v>40</v>
+      </c>
+      <c r="O7" t="n">
+        <v>42</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.806146841176471</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.7994703</v>
+      </c>
+      <c r="R7" t="n">
+        <v>45</v>
+      </c>
+      <c r="S7" t="n">
         <v>46</v>
       </c>
-      <c r="K7" t="n">
-        <v>37</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.700337235294118</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.709249</v>
-      </c>
-      <c r="N7" t="n">
-        <v>52</v>
-      </c>
-      <c r="O7" t="n">
-        <v>51</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0.712764817647059</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0.71455715</v>
-      </c>
-      <c r="R7" t="n">
-        <v>53</v>
-      </c>
-      <c r="S7" t="n">
-        <v>53</v>
-      </c>
       <c r="T7" t="n">
-        <v>0.7151241</v>
+        <v>0.582485935294118</v>
       </c>
       <c r="U7" t="n">
-        <v>0.72155665</v>
+        <v>0.5</v>
       </c>
       <c r="V7" t="n">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="W7" t="n">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="X7" t="n">
-        <v>0.501358270588235</v>
+        <v>0.210152323529412</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.56705945</v>
+        <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="AA7" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="AB7" t="n">
-        <v>45</v>
+        <v>41.6</v>
       </c>
       <c r="AC7" t="n">
-        <v>44.4</v>
+        <v>38.4</v>
       </c>
     </row>
     <row r="8">
@@ -1346,70 +1346,70 @@
         <v>49</v>
       </c>
       <c r="H8" t="n">
-        <v>0.700462882352941</v>
+        <v>0.762959141176471</v>
       </c>
       <c r="I8" t="n">
-        <v>0.71324995</v>
+        <v>0.7602728</v>
       </c>
       <c r="J8" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="K8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L8" t="n">
-        <v>0.755898017647059</v>
+        <v>0.844691329411765</v>
       </c>
       <c r="M8" t="n">
-        <v>0.73931155</v>
+        <v>0.8908608</v>
       </c>
       <c r="N8" t="n">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="O8" t="n">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="P8" t="n">
-        <v>0.7750686</v>
+        <v>0.8718989</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.74472475</v>
+        <v>0.9133738</v>
       </c>
       <c r="R8" t="n">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="S8" t="n">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="T8" t="n">
-        <v>0.758844005882353</v>
+        <v>0.5983592</v>
       </c>
       <c r="U8" t="n">
-        <v>0.7489583</v>
+        <v>0.5</v>
       </c>
       <c r="V8" t="n">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="W8" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="X8" t="n">
-        <v>0.613295291176471</v>
+        <v>0.232975747058824</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.6716722</v>
+        <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="AA8" t="n">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="AB8" t="n">
-        <v>30.8</v>
+        <v>18.8</v>
       </c>
       <c r="AC8" t="n">
-        <v>32</v>
+        <v>20.6</v>
       </c>
     </row>
     <row r="9">
@@ -1435,70 +1435,70 @@
         <v>49</v>
       </c>
       <c r="H9" t="n">
-        <v>0.672406117647059</v>
+        <v>0.745626635294118</v>
       </c>
       <c r="I9" t="n">
-        <v>0.68189215</v>
+        <v>0.7442099</v>
       </c>
       <c r="J9" t="n">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="K9" t="n">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="L9" t="n">
-        <v>0.734414364705882</v>
+        <v>0.808787123529412</v>
       </c>
       <c r="M9" t="n">
-        <v>0.73531195</v>
+        <v>0.8339496</v>
       </c>
       <c r="N9" t="n">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="O9" t="n">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="P9" t="n">
-        <v>0.7513969</v>
+        <v>0.826507323529412</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.74092705</v>
+        <v>0.8582355</v>
       </c>
       <c r="R9" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="S9" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="T9" t="n">
-        <v>0.606826023529412</v>
+        <v>0.587875805882353</v>
       </c>
       <c r="U9" t="n">
         <v>0.5</v>
       </c>
       <c r="V9" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="W9" t="n">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="X9" t="n">
-        <v>0.248689041176471</v>
+        <v>0.209738258823529</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
       </c>
       <c r="Z9" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="AA9" t="n">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="AB9" t="n">
-        <v>47</v>
+        <v>37.4</v>
       </c>
       <c r="AC9" t="n">
-        <v>44.4</v>
+        <v>31.6</v>
       </c>
     </row>
     <row r="10">
@@ -1524,70 +1524,70 @@
         <v>49</v>
       </c>
       <c r="H10" t="n">
-        <v>0.680335252941176</v>
+        <v>0.752404741176471</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6982602</v>
+        <v>0.7560597</v>
       </c>
       <c r="J10" t="n">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="K10" t="n">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="L10" t="n">
-        <v>0.741049441176471</v>
+        <v>0.816161488235294</v>
       </c>
       <c r="M10" t="n">
-        <v>0.74051895</v>
+        <v>0.8451486</v>
       </c>
       <c r="N10" t="n">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="O10" t="n">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="P10" t="n">
-        <v>0.759432382352941</v>
+        <v>0.835282523529412</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.74721325</v>
+        <v>0.8671323</v>
       </c>
       <c r="R10" t="n">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="S10" t="n">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="T10" t="n">
-        <v>0.627301723529412</v>
+        <v>0.592981270588235</v>
       </c>
       <c r="U10" t="n">
         <v>0.5</v>
       </c>
       <c r="V10" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="W10" t="n">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="X10" t="n">
-        <v>0.290688123529412</v>
+        <v>0.219704517647059</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="AA10" t="n">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="AB10" t="n">
-        <v>44.6</v>
+        <v>33</v>
       </c>
       <c r="AC10" t="n">
-        <v>41</v>
+        <v>29.4</v>
       </c>
     </row>
     <row r="11">
@@ -1613,70 +1613,70 @@
         <v>54</v>
       </c>
       <c r="H11" t="n">
-        <v>0.645858347058824</v>
+        <v>0.689318011764706</v>
       </c>
       <c r="I11" t="n">
-        <v>0.62171165</v>
+        <v>0.6566373</v>
       </c>
       <c r="J11" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K11" t="n">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="L11" t="n">
-        <v>0.732447929411765</v>
+        <v>0.778291152941176</v>
       </c>
       <c r="M11" t="n">
-        <v>0.7265941</v>
+        <v>0.7621858</v>
       </c>
       <c r="N11" t="n">
         <v>46</v>
       </c>
       <c r="O11" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="P11" t="n">
-        <v>0.778284558823529</v>
+        <v>0.8191924</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.77936485</v>
+        <v>0.7997656</v>
       </c>
       <c r="R11" t="n">
+        <v>41</v>
+      </c>
+      <c r="S11" t="n">
+        <v>45</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.763013729411765</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.7596454</v>
+      </c>
+      <c r="V11" t="n">
+        <v>26</v>
+      </c>
+      <c r="W11" t="n">
+        <v>18</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.689326747058824</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0.8278722</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB11" t="n">
         <v>39</v>
       </c>
-      <c r="S11" t="n">
-        <v>35</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0.758676429411765</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0.7588981</v>
-      </c>
-      <c r="V11" t="n">
-        <v>23</v>
-      </c>
-      <c r="W11" t="n">
-        <v>23</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0.662826358823529</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0.7951202</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>36.2</v>
-      </c>
       <c r="AC11" t="n">
-        <v>34.6</v>
+        <v>36.8</v>
       </c>
     </row>
     <row r="12">
@@ -1702,70 +1702,70 @@
         <v>54</v>
       </c>
       <c r="H12" t="n">
-        <v>0.761354805882353</v>
+        <v>0.732812076470588</v>
       </c>
       <c r="I12" t="n">
-        <v>0.7566686</v>
+        <v>0.7514548</v>
       </c>
       <c r="J12" t="n">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="K12" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="L12" t="n">
-        <v>0.799789882352941</v>
+        <v>0.771877470588235</v>
       </c>
       <c r="M12" t="n">
-        <v>0.79360255</v>
+        <v>0.7865425</v>
       </c>
       <c r="N12" t="n">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="O12" t="n">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="P12" t="n">
-        <v>0.811502558823529</v>
+        <v>0.7836977</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.80693545</v>
+        <v>0.8011133</v>
       </c>
       <c r="R12" t="n">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="S12" t="n">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="T12" t="n">
-        <v>0.720895194117647</v>
+        <v>0.576667852941177</v>
       </c>
       <c r="U12" t="n">
-        <v>0.72800455</v>
+        <v>0.5</v>
       </c>
       <c r="V12" t="n">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="W12" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="X12" t="n">
-        <v>0.492609747058824</v>
+        <v>0.201162782352941</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.58041675</v>
+        <v>0</v>
       </c>
       <c r="Z12" t="n">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="AA12" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AB12" t="n">
-        <v>22.8</v>
+        <v>48</v>
       </c>
       <c r="AC12" t="n">
-        <v>26.2</v>
+        <v>37.6</v>
       </c>
     </row>
     <row r="13">
@@ -1791,70 +1791,70 @@
         <v>54</v>
       </c>
       <c r="H13" t="n">
-        <v>0.760118217647059</v>
+        <v>0.73818</v>
       </c>
       <c r="I13" t="n">
-        <v>0.75004765</v>
+        <v>0.7424021</v>
       </c>
       <c r="J13" t="n">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="K13" t="n">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="L13" t="n">
-        <v>0.803371647058824</v>
+        <v>0.780527135294118</v>
       </c>
       <c r="M13" t="n">
-        <v>0.7964967</v>
+        <v>0.7897611</v>
       </c>
       <c r="N13" t="n">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="O13" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="P13" t="n">
-        <v>0.817206929411765</v>
+        <v>0.794330452941176</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.81429785</v>
+        <v>0.8104889</v>
       </c>
       <c r="R13" t="n">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="S13" t="n">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="T13" t="n">
-        <v>0.721333288235294</v>
+        <v>0.578340517647059</v>
       </c>
       <c r="U13" t="n">
-        <v>0.7282236</v>
+        <v>0.5</v>
       </c>
       <c r="V13" t="n">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="W13" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="X13" t="n">
-        <v>0.497169</v>
+        <v>0.206327058823529</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.5785127</v>
+        <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="AA13" t="n">
+        <v>40</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>45.4</v>
+      </c>
+      <c r="AC13" t="n">
         <v>38</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>21.8</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>25.6</v>
       </c>
     </row>
     <row r="14">
@@ -1880,70 +1880,70 @@
         <v>59</v>
       </c>
       <c r="H14" t="n">
-        <v>0.730579282352941</v>
+        <v>0.745325441176471</v>
       </c>
       <c r="I14" t="n">
-        <v>0.7200421</v>
+        <v>0.7132709</v>
       </c>
       <c r="J14" t="n">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="K14" t="n">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="L14" t="n">
-        <v>0.811476752941176</v>
+        <v>0.822578405882353</v>
       </c>
       <c r="M14" t="n">
-        <v>0.8439019</v>
+        <v>0.8901581</v>
       </c>
       <c r="N14" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="O14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P14" t="n">
-        <v>0.839104029411765</v>
+        <v>0.849522511764706</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.87949255</v>
+        <v>0.9302708</v>
       </c>
       <c r="R14" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="S14" t="n">
         <v>3</v>
       </c>
       <c r="T14" t="n">
-        <v>0.594701682352941</v>
+        <v>0.595415105882353</v>
       </c>
       <c r="U14" t="n">
         <v>0.5</v>
       </c>
       <c r="V14" t="n">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="W14" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="X14" t="n">
-        <v>0.231464364705882</v>
+        <v>0.231924147058824</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
       </c>
       <c r="Z14" t="n">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="AA14" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AB14" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AC14" t="n">
-        <v>25.2</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="15">
@@ -1969,70 +1969,70 @@
         <v>59</v>
       </c>
       <c r="H15" t="n">
-        <v>0.774926535294118</v>
+        <v>0.749935217647059</v>
       </c>
       <c r="I15" t="n">
-        <v>0.7685314</v>
+        <v>0.7725048</v>
       </c>
       <c r="J15" t="n">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="K15" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="L15" t="n">
-        <v>0.832944370588235</v>
+        <v>0.804940594117647</v>
       </c>
       <c r="M15" t="n">
-        <v>0.8417187</v>
+        <v>0.8495492</v>
       </c>
       <c r="N15" t="n">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="O15" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="P15" t="n">
-        <v>0.849686541176471</v>
+        <v>0.820117829411765</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.8635027</v>
+        <v>0.8656173</v>
       </c>
       <c r="R15" t="n">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="S15" t="n">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="T15" t="n">
-        <v>0.5866902</v>
+        <v>0.585792170588235</v>
       </c>
       <c r="U15" t="n">
         <v>0.5</v>
       </c>
       <c r="V15" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="W15" t="n">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="X15" t="n">
-        <v>0.209001747058824</v>
+        <v>0.207022082352941</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
       </c>
       <c r="Z15" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AA15" t="n">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="AB15" t="n">
-        <v>25.6</v>
+        <v>38</v>
       </c>
       <c r="AC15" t="n">
-        <v>24.8</v>
+        <v>29.6</v>
       </c>
     </row>
     <row r="16">
@@ -2058,70 +2058,70 @@
         <v>59</v>
       </c>
       <c r="H16" t="n">
-        <v>0.776581023529412</v>
+        <v>0.756311211764706</v>
       </c>
       <c r="I16" t="n">
-        <v>0.77252125</v>
+        <v>0.7793229</v>
       </c>
       <c r="J16" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="K16" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="L16" t="n">
-        <v>0.837689105882353</v>
+        <v>0.813695294117647</v>
       </c>
       <c r="M16" t="n">
-        <v>0.84979635</v>
+        <v>0.8580979</v>
       </c>
       <c r="N16" t="n">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="O16" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="P16" t="n">
-        <v>0.855996164705882</v>
+        <v>0.830318688235294</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.87297795</v>
+        <v>0.8706138</v>
       </c>
       <c r="R16" t="n">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="S16" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="T16" t="n">
-        <v>0.592712894117647</v>
+        <v>0.591968005882353</v>
       </c>
       <c r="U16" t="n">
         <v>0.5</v>
       </c>
       <c r="V16" t="n">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="W16" t="n">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="X16" t="n">
-        <v>0.220668847058824</v>
+        <v>0.218984329411765</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
       </c>
       <c r="Z16" t="n">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="AA16" t="n">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="AB16" t="n">
-        <v>23.4</v>
+        <v>34.4</v>
       </c>
       <c r="AC16" t="n">
-        <v>24</v>
+        <v>28.2</v>
       </c>
     </row>
     <row r="17">
@@ -2147,10 +2147,10 @@
         <v>64</v>
       </c>
       <c r="H17" t="n">
-        <v>0.611917882352941</v>
+        <v>0.673564194117647</v>
       </c>
       <c r="I17" t="n">
-        <v>0.60574705</v>
+        <v>0.5995762</v>
       </c>
       <c r="J17" t="n">
         <v>55</v>
@@ -2159,58 +2159,58 @@
         <v>55</v>
       </c>
       <c r="L17" t="n">
-        <v>0.685492588235294</v>
+        <v>0.761745523529412</v>
       </c>
       <c r="M17" t="n">
-        <v>0.6852194</v>
+        <v>0.6957863</v>
       </c>
       <c r="N17" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="O17" t="n">
         <v>55</v>
       </c>
       <c r="P17" t="n">
-        <v>0.7169263</v>
+        <v>0.799011770588235</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.71734125</v>
+        <v>0.7475848</v>
       </c>
       <c r="R17" t="n">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="S17" t="n">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="T17" t="n">
-        <v>0.717485994117647</v>
+        <v>0.753928858823529</v>
       </c>
       <c r="U17" t="n">
-        <v>0.724939</v>
+        <v>0.7566837</v>
       </c>
       <c r="V17" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="W17" t="n">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="X17" t="n">
-        <v>0.582656494117647</v>
+        <v>0.677198152941176</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.6711733</v>
+        <v>0.8218638</v>
       </c>
       <c r="Z17" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="AA17" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="AB17" t="n">
-        <v>46.2</v>
+        <v>42</v>
       </c>
       <c r="AC17" t="n">
-        <v>46.6</v>
+        <v>42.4</v>
       </c>
     </row>
     <row r="18">
@@ -2236,34 +2236,34 @@
         <v>64</v>
       </c>
       <c r="H18" t="n">
-        <v>0.650116841176471</v>
+        <v>0.705977076470588</v>
       </c>
       <c r="I18" t="n">
-        <v>0.6584862</v>
+        <v>0.6690323</v>
       </c>
       <c r="J18" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="K18" t="n">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="L18" t="n">
-        <v>0.701884023529412</v>
+        <v>0.757545976470588</v>
       </c>
       <c r="M18" t="n">
-        <v>0.7218529</v>
+        <v>0.7447632</v>
       </c>
       <c r="N18" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O18" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="P18" t="n">
-        <v>0.715786088235294</v>
+        <v>0.772951252941177</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.7185562</v>
+        <v>0.781142</v>
       </c>
       <c r="R18" t="n">
         <v>52</v>
@@ -2272,34 +2272,34 @@
         <v>51</v>
       </c>
       <c r="T18" t="n">
-        <v>0.602938235294118</v>
+        <v>0.576656070588235</v>
       </c>
       <c r="U18" t="n">
-        <v>0.5681555</v>
+        <v>0.5</v>
       </c>
       <c r="V18" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="W18" t="n">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="X18" t="n">
-        <v>0.246150123529412</v>
+        <v>0.192304594117647</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.1394194</v>
+        <v>0</v>
       </c>
       <c r="Z18" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="AA18" t="n">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="AB18" t="n">
-        <v>51</v>
+        <v>50.8</v>
       </c>
       <c r="AC18" t="n">
-        <v>48.6</v>
+        <v>47.2</v>
       </c>
     </row>
     <row r="19">
@@ -2325,34 +2325,34 @@
         <v>64</v>
       </c>
       <c r="H19" t="n">
-        <v>0.652456788235294</v>
+        <v>0.709146047058824</v>
       </c>
       <c r="I19" t="n">
-        <v>0.65803365</v>
+        <v>0.6653372</v>
       </c>
       <c r="J19" t="n">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="K19" t="n">
+        <v>46</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.765063164705882</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.7453063</v>
+      </c>
+      <c r="N19" t="n">
         <v>50</v>
       </c>
-      <c r="L19" t="n">
-        <v>0.708515005882353</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.7232113</v>
-      </c>
-      <c r="N19" t="n">
-        <v>48</v>
-      </c>
       <c r="O19" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="P19" t="n">
-        <v>0.724238929411765</v>
+        <v>0.782439258823529</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.72096245</v>
+        <v>0.7812762</v>
       </c>
       <c r="R19" t="n">
         <v>50</v>
@@ -2361,34 +2361,34 @@
         <v>50</v>
       </c>
       <c r="T19" t="n">
-        <v>0.642751329411765</v>
+        <v>0.581314547058824</v>
       </c>
       <c r="U19" t="n">
-        <v>0.63185995</v>
+        <v>0.5</v>
       </c>
       <c r="V19" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="W19" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="X19" t="n">
-        <v>0.331726417647059</v>
+        <v>0.203789764705882</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.366308</v>
+        <v>0</v>
       </c>
       <c r="Z19" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="AA19" t="n">
         <v>45</v>
       </c>
       <c r="AB19" t="n">
-        <v>47.8</v>
+        <v>48.4</v>
       </c>
       <c r="AC19" t="n">
-        <v>47.8</v>
+        <v>47.4</v>
       </c>
     </row>
     <row r="20">
@@ -2414,70 +2414,70 @@
         <v>69</v>
       </c>
       <c r="H20" t="n">
-        <v>0.693768864705882</v>
+        <v>0.700530729411765</v>
       </c>
       <c r="I20" t="n">
-        <v>0.6885307</v>
+        <v>0.6566273</v>
       </c>
       <c r="J20" t="n">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="K20" t="n">
+        <v>49</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.793662347058824</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.7952527</v>
+      </c>
+      <c r="N20" t="n">
+        <v>39</v>
+      </c>
+      <c r="O20" t="n">
         <v>36</v>
       </c>
-      <c r="L20" t="n">
-        <v>0.771528523529412</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.77278935</v>
-      </c>
-      <c r="N20" t="n">
-        <v>29</v>
-      </c>
-      <c r="O20" t="n">
-        <v>29</v>
-      </c>
       <c r="P20" t="n">
-        <v>0.802922558823529</v>
+        <v>0.834279594117647</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.80969405</v>
+        <v>0.8324721</v>
       </c>
       <c r="R20" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="S20" t="n">
+        <v>41</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0.768288247058823</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.7421179</v>
+      </c>
+      <c r="V20" t="n">
+        <v>24</v>
+      </c>
+      <c r="W20" t="n">
         <v>28</v>
       </c>
-      <c r="T20" t="n">
-        <v>0.776475858823529</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0.7817025</v>
-      </c>
-      <c r="V20" t="n">
-        <v>16</v>
-      </c>
-      <c r="W20" t="n">
-        <v>15</v>
-      </c>
       <c r="X20" t="n">
-        <v>0.711648937058823</v>
+        <v>0.701567058823529</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.8379248</v>
+        <v>0.8522739</v>
       </c>
       <c r="Z20" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="AA20" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="AB20" t="n">
-        <v>22.8</v>
+        <v>33.6</v>
       </c>
       <c r="AC20" t="n">
-        <v>23.2</v>
+        <v>34.8</v>
       </c>
     </row>
     <row r="21">
@@ -2503,70 +2503,70 @@
         <v>69</v>
       </c>
       <c r="H21" t="n">
-        <v>0.743221205882353</v>
+        <v>0.734563817647059</v>
       </c>
       <c r="I21" t="n">
-        <v>0.7479276</v>
+        <v>0.7522351</v>
       </c>
       <c r="J21" t="n">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="K21" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="L21" t="n">
-        <v>0.780822511764706</v>
+        <v>0.771283323529412</v>
       </c>
       <c r="M21" t="n">
-        <v>0.78430825</v>
+        <v>0.7898398</v>
       </c>
       <c r="N21" t="n">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="O21" t="n">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="P21" t="n">
-        <v>0.792030264705882</v>
+        <v>0.781736058823529</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.80194445</v>
+        <v>0.8049715</v>
       </c>
       <c r="R21" t="n">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="S21" t="n">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="T21" t="n">
-        <v>0.695250788235294</v>
+        <v>0.580905711764706</v>
       </c>
       <c r="U21" t="n">
-        <v>0.717853</v>
+        <v>0.5</v>
       </c>
       <c r="V21" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="W21" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="X21" t="n">
-        <v>0.433191611764706</v>
+        <v>0.203090270588235</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.46133205</v>
+        <v>0</v>
       </c>
       <c r="Z21" t="n">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="AA21" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AB21" t="n">
-        <v>30.4</v>
+        <v>47.6</v>
       </c>
       <c r="AC21" t="n">
-        <v>30.6</v>
+        <v>39.4</v>
       </c>
     </row>
     <row r="22">
@@ -2592,70 +2592,70 @@
         <v>69</v>
       </c>
       <c r="H22" t="n">
-        <v>0.731292235294118</v>
+        <v>0.799295847058824</v>
       </c>
       <c r="I22" t="n">
-        <v>0.7289543</v>
+        <v>0.7825176</v>
       </c>
       <c r="J22" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="K22" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L22" t="n">
-        <v>0.810102394117647</v>
+        <v>0.854605682352941</v>
       </c>
       <c r="M22" t="n">
-        <v>0.80859475</v>
+        <v>0.879041</v>
       </c>
       <c r="N22" t="n">
+        <v>1</v>
+      </c>
+      <c r="O22" t="n">
         <v>10</v>
       </c>
-      <c r="O22" t="n">
-        <v>13</v>
-      </c>
       <c r="P22" t="n">
-        <v>0.835972629411765</v>
+        <v>0.873178747058823</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.84408935</v>
+        <v>0.9104572</v>
       </c>
       <c r="R22" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="S22" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="T22" t="n">
-        <v>0.7703019</v>
+        <v>0.5937107</v>
       </c>
       <c r="U22" t="n">
-        <v>0.79933035</v>
+        <v>0.5</v>
       </c>
       <c r="V22" t="n">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="W22" t="n">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="X22" t="n">
-        <v>0.607589229411765</v>
+        <v>0.229326111764706</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.6807727</v>
+        <v>0</v>
       </c>
       <c r="Z22" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AA22" t="n">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="AB22" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AC22" t="n">
-        <v>15</v>
+        <v>24.4</v>
       </c>
     </row>
     <row r="23">
@@ -2681,70 +2681,70 @@
         <v>74</v>
       </c>
       <c r="H23" t="n">
-        <v>0.705777311764706</v>
+        <v>0.761931570588235</v>
       </c>
       <c r="I23" t="n">
-        <v>0.70636905</v>
+        <v>0.7160885</v>
       </c>
       <c r="J23" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K23" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="L23" t="n">
-        <v>0.786538123529412</v>
+        <v>0.841289717647059</v>
       </c>
       <c r="M23" t="n">
-        <v>0.80604265</v>
+        <v>0.9000975</v>
       </c>
       <c r="N23" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="O23" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="P23" t="n">
-        <v>0.819098735294118</v>
+        <v>0.866887276470588</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.83881465</v>
+        <v>0.9236004</v>
       </c>
       <c r="R23" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="S23" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="T23" t="n">
-        <v>0.795410458823529</v>
+        <v>0.740234182352941</v>
       </c>
       <c r="U23" t="n">
-        <v>0.82576615</v>
+        <v>0.7510685</v>
       </c>
       <c r="V23" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="W23" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="X23" t="n">
-        <v>0.702411841764706</v>
+        <v>0.533218511764706</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.84404515</v>
+        <v>0.6096474</v>
       </c>
       <c r="Z23" t="n">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="AA23" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="AB23" t="n">
-        <v>12.8</v>
+        <v>19.6</v>
       </c>
       <c r="AC23" t="n">
-        <v>12.8</v>
+        <v>19.6</v>
       </c>
     </row>
     <row r="24">
@@ -2770,70 +2770,70 @@
         <v>74</v>
       </c>
       <c r="H24" t="n">
-        <v>0.764999958823529</v>
+        <v>0.751380129411765</v>
       </c>
       <c r="I24" t="n">
-        <v>0.76797725</v>
+        <v>0.7720397</v>
       </c>
       <c r="J24" t="n">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="K24" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="L24" t="n">
-        <v>0.818892123529412</v>
+        <v>0.801351505882353</v>
       </c>
       <c r="M24" t="n">
-        <v>0.8401183</v>
+        <v>0.830758</v>
       </c>
       <c r="N24" t="n">
-        <v>7</v>
+        <v>36</v>
       </c>
       <c r="O24" t="n">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="P24" t="n">
-        <v>0.833529529411765</v>
+        <v>0.814113617647059</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.8599067</v>
+        <v>0.8537297</v>
       </c>
       <c r="R24" t="n">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="S24" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="T24" t="n">
-        <v>0.628652682352941</v>
+        <v>0.584546311764706</v>
       </c>
       <c r="U24" t="n">
         <v>0.5</v>
       </c>
       <c r="V24" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="W24" t="n">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="X24" t="n">
-        <v>0.293206947058824</v>
+        <v>0.204049135294118</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
       </c>
       <c r="Z24" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AA24" t="n">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="AB24" t="n">
-        <v>23.8</v>
+        <v>39.6</v>
       </c>
       <c r="AC24" t="n">
-        <v>26.4</v>
+        <v>34.4</v>
       </c>
     </row>
     <row r="25">
@@ -2859,70 +2859,70 @@
         <v>74</v>
       </c>
       <c r="H25" t="n">
-        <v>0.775096976470588</v>
+        <v>0.793777876470588</v>
       </c>
       <c r="I25" t="n">
-        <v>0.77085355</v>
+        <v>0.8032538</v>
       </c>
       <c r="J25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L25" t="n">
-        <v>0.837327005882353</v>
+        <v>0.852332764705882</v>
       </c>
       <c r="M25" t="n">
-        <v>0.85680085</v>
+        <v>0.8890508</v>
       </c>
       <c r="N25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O25" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P25" t="n">
-        <v>0.8591681</v>
+        <v>0.872629370588235</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.8849873</v>
+        <v>0.9200133</v>
       </c>
       <c r="R25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T25" t="n">
-        <v>0.6983927</v>
+        <v>0.601354052941176</v>
       </c>
       <c r="U25" t="n">
-        <v>0.684785</v>
+        <v>0.5</v>
       </c>
       <c r="V25" t="n">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="W25" t="n">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="X25" t="n">
-        <v>0.435142241176471</v>
+        <v>0.238104164705882</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.4943986</v>
+        <v>0</v>
       </c>
       <c r="Z25" t="n">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="AA25" t="n">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="AB25" t="n">
-        <v>19.2</v>
+        <v>14.2</v>
       </c>
       <c r="AC25" t="n">
-        <v>18.6</v>
+        <v>22.4</v>
       </c>
     </row>
     <row r="26">
@@ -2948,70 +2948,70 @@
         <v>79</v>
       </c>
       <c r="H26" t="n">
-        <v>0.686796388235294</v>
+        <v>0.698880976470588</v>
       </c>
       <c r="I26" t="n">
-        <v>0.68543185</v>
+        <v>0.6563285</v>
       </c>
       <c r="J26" t="n">
+        <v>51</v>
+      </c>
+      <c r="K26" t="n">
+        <v>51</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.794817705882353</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.7947949</v>
+      </c>
+      <c r="N26" t="n">
         <v>38</v>
       </c>
-      <c r="K26" t="n">
-        <v>40</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0.753338770588235</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.7403417</v>
-      </c>
-      <c r="N26" t="n">
-        <v>40</v>
-      </c>
       <c r="O26" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P26" t="n">
-        <v>0.775888764705882</v>
+        <v>0.837817229411765</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.73380475</v>
+        <v>0.839701</v>
       </c>
       <c r="R26" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="S26" t="n">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="T26" t="n">
-        <v>0.743777347058823</v>
+        <v>0.770225535294118</v>
       </c>
       <c r="U26" t="n">
-        <v>0.7402711</v>
+        <v>0.7658153</v>
       </c>
       <c r="V26" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="W26" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="X26" t="n">
-        <v>0.650296219411765</v>
+        <v>0.709519152941176</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.6729137</v>
+        <v>0.8583837</v>
       </c>
       <c r="Z26" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AA26" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="AB26" t="n">
-        <v>33.4</v>
+        <v>31.8</v>
       </c>
       <c r="AC26" t="n">
-        <v>37</v>
+        <v>31.8</v>
       </c>
     </row>
     <row r="27">
@@ -3037,70 +3037,70 @@
         <v>79</v>
       </c>
       <c r="H27" t="n">
-        <v>0.655229205882353</v>
+        <v>0.718214170588235</v>
       </c>
       <c r="I27" t="n">
-        <v>0.66215245</v>
+        <v>0.7182375</v>
       </c>
       <c r="J27" t="n">
+        <v>44</v>
+      </c>
+      <c r="K27" t="n">
+        <v>35</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0.757179088235294</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.7727183</v>
+      </c>
+      <c r="N27" t="n">
+        <v>53</v>
+      </c>
+      <c r="O27" t="n">
         <v>47</v>
       </c>
-      <c r="K27" t="n">
-        <v>48</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0.6928314</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.71101665</v>
-      </c>
-      <c r="N27" t="n">
-        <v>54</v>
-      </c>
-      <c r="O27" t="n">
-        <v>50</v>
-      </c>
       <c r="P27" t="n">
-        <v>0.702412482352941</v>
+        <v>0.766800105882353</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.7114578</v>
+        <v>0.7831106</v>
       </c>
       <c r="R27" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="S27" t="n">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="T27" t="n">
-        <v>0.590481435294118</v>
+        <v>0.576508823529412</v>
       </c>
       <c r="U27" t="n">
         <v>0.5</v>
       </c>
       <c r="V27" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="W27" t="n">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="X27" t="n">
-        <v>0.218320529411765</v>
+        <v>0.188665905882353</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
       </c>
       <c r="Z27" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AA27" t="n">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="AB27" t="n">
-        <v>52.8</v>
+        <v>51.2</v>
       </c>
       <c r="AC27" t="n">
-        <v>52</v>
+        <v>46.2</v>
       </c>
     </row>
     <row r="28">
@@ -3126,70 +3126,70 @@
         <v>79</v>
       </c>
       <c r="H28" t="n">
-        <v>0.668937911764706</v>
+        <v>0.758582888235294</v>
       </c>
       <c r="I28" t="n">
-        <v>0.67579445</v>
+        <v>0.7490483</v>
       </c>
       <c r="J28" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="K28" t="n">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="L28" t="n">
-        <v>0.729641717647059</v>
+        <v>0.827211970588235</v>
       </c>
       <c r="M28" t="n">
-        <v>0.7277551</v>
+        <v>0.8306251</v>
       </c>
       <c r="N28" t="n">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="O28" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="P28" t="n">
-        <v>0.749805735294118</v>
+        <v>0.849575023529412</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.730469</v>
+        <v>0.8646309</v>
       </c>
       <c r="R28" t="n">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="S28" t="n">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="T28" t="n">
-        <v>0.729595094117647</v>
+        <v>0.593775258823529</v>
       </c>
       <c r="U28" t="n">
-        <v>0.7817917</v>
+        <v>0.5</v>
       </c>
       <c r="V28" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="W28" t="n">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="X28" t="n">
-        <v>0.521099347058824</v>
+        <v>0.226798029411765</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.6113249</v>
+        <v>0</v>
       </c>
       <c r="Z28" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="AA28" t="n">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="AB28" t="n">
-        <v>41.2</v>
+        <v>28.4</v>
       </c>
       <c r="AC28" t="n">
-        <v>37.4</v>
+        <v>37.2</v>
       </c>
     </row>
     <row r="29">
@@ -3215,70 +3215,70 @@
         <v>84</v>
       </c>
       <c r="H29" t="n">
-        <v>0.648916970588235</v>
+        <v>0.691803852941177</v>
       </c>
       <c r="I29" t="n">
-        <v>0.622253</v>
+        <v>0.6563677</v>
       </c>
       <c r="J29" t="n">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K29" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="L29" t="n">
-        <v>0.737912505882353</v>
+        <v>0.783517241176471</v>
       </c>
       <c r="M29" t="n">
-        <v>0.72621225</v>
+        <v>0.7588742</v>
       </c>
       <c r="N29" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="O29" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="P29" t="n">
-        <v>0.7843591</v>
+        <v>0.825591682352941</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.7824021</v>
+        <v>0.8341181</v>
       </c>
       <c r="R29" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="S29" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="T29" t="n">
-        <v>0.771842694117647</v>
+        <v>0.770896158823529</v>
       </c>
       <c r="U29" t="n">
-        <v>0.7705817</v>
+        <v>0.7272945</v>
       </c>
       <c r="V29" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="W29" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="X29" t="n">
-        <v>0.693780594117647</v>
+        <v>0.712963523529412</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.8340611</v>
+        <v>0.8701854</v>
       </c>
       <c r="Z29" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AA29" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AB29" t="n">
-        <v>32.2</v>
+        <v>34.6</v>
       </c>
       <c r="AC29" t="n">
-        <v>33</v>
+        <v>36.8</v>
       </c>
     </row>
     <row r="30">
@@ -3304,70 +3304,70 @@
         <v>84</v>
       </c>
       <c r="H30" t="n">
-        <v>0.7480528</v>
+        <v>0.719549423529412</v>
       </c>
       <c r="I30" t="n">
-        <v>0.73331985</v>
+        <v>0.7239084</v>
       </c>
       <c r="J30" t="n">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="K30" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="L30" t="n">
-        <v>0.786353788235294</v>
+        <v>0.752650682352941</v>
       </c>
       <c r="M30" t="n">
-        <v>0.7805282</v>
+        <v>0.7734386</v>
       </c>
       <c r="N30" t="n">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="O30" t="n">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="P30" t="n">
-        <v>0.796146617647059</v>
+        <v>0.761336029411765</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.79387265</v>
+        <v>0.7885169</v>
       </c>
       <c r="R30" t="n">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="S30" t="n">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="T30" t="n">
-        <v>0.650214605882353</v>
+        <v>0.574150823529412</v>
       </c>
       <c r="U30" t="n">
-        <v>0.63891505</v>
+        <v>0.5</v>
       </c>
       <c r="V30" t="n">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="W30" t="n">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="X30" t="n">
-        <v>0.337921482352941</v>
+        <v>0.183726847058824</v>
       </c>
       <c r="Y30" t="n">
-        <v>0.33821155</v>
+        <v>0</v>
       </c>
       <c r="Z30" t="n">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="AA30" t="n">
+        <v>52</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>51.6</v>
+      </c>
+      <c r="AC30" t="n">
         <v>46</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>29.6</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>32.2</v>
       </c>
     </row>
     <row r="31">
@@ -3393,70 +3393,70 @@
         <v>84</v>
       </c>
       <c r="H31" t="n">
-        <v>0.746813423529412</v>
+        <v>0.751823341176471</v>
       </c>
       <c r="I31" t="n">
-        <v>0.7335287</v>
+        <v>0.7219508</v>
       </c>
       <c r="J31" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="K31" t="n">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="L31" t="n">
-        <v>0.810601688235294</v>
+        <v>0.815238370588235</v>
       </c>
       <c r="M31" t="n">
-        <v>0.82218145</v>
+        <v>0.8340737</v>
       </c>
       <c r="N31" t="n">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="O31" t="n">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="P31" t="n">
-        <v>0.832831076470588</v>
+        <v>0.836710611764706</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.8542421</v>
+        <v>0.8682898</v>
       </c>
       <c r="R31" t="n">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="S31" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="T31" t="n">
-        <v>0.713178647058824</v>
+        <v>0.590504088235294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.730935</v>
+        <v>0.5</v>
       </c>
       <c r="V31" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="W31" t="n">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="X31" t="n">
-        <v>0.475332376470588</v>
+        <v>0.223962894117647</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.63364035</v>
+        <v>0</v>
       </c>
       <c r="Z31" t="n">
         <v>40</v>
       </c>
       <c r="AA31" t="n">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="AB31" t="n">
-        <v>22.6</v>
+        <v>33.4</v>
       </c>
       <c r="AC31" t="n">
-        <v>20.4</v>
+        <v>38.2</v>
       </c>
     </row>
     <row r="32">
@@ -3482,70 +3482,70 @@
         <v>89</v>
       </c>
       <c r="H32" t="n">
-        <v>0.693712529411765</v>
+        <v>0.701502052941177</v>
       </c>
       <c r="I32" t="n">
-        <v>0.6868257</v>
+        <v>0.6571042</v>
       </c>
       <c r="J32" t="n">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="K32" t="n">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="L32" t="n">
-        <v>0.774264011764706</v>
+        <v>0.796199982352941</v>
       </c>
       <c r="M32" t="n">
-        <v>0.7758847</v>
+        <v>0.7953114</v>
       </c>
       <c r="N32" t="n">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="O32" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="P32" t="n">
-        <v>0.806374105882353</v>
+        <v>0.837270358823529</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.81459655</v>
+        <v>0.8458807</v>
       </c>
       <c r="R32" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="S32" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="T32" t="n">
-        <v>0.778741164705882</v>
+        <v>0.772311711764706</v>
       </c>
       <c r="U32" t="n">
-        <v>0.76362135</v>
+        <v>0.7276569</v>
       </c>
       <c r="V32" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="W32" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="X32" t="n">
-        <v>0.727087441764706</v>
+        <v>0.717164929411765</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.848109</v>
+        <v>0.8830595</v>
       </c>
       <c r="Z32" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA32" t="n">
         <v>8</v>
       </c>
-      <c r="AA32" t="n">
-        <v>1</v>
-      </c>
       <c r="AB32" t="n">
-        <v>21.4</v>
+        <v>29.4</v>
       </c>
       <c r="AC32" t="n">
-        <v>23</v>
+        <v>30.2</v>
       </c>
     </row>
     <row r="33">
@@ -3571,70 +3571,70 @@
         <v>89</v>
       </c>
       <c r="H33" t="n">
-        <v>0.736409788235294</v>
+        <v>0.718747558823529</v>
       </c>
       <c r="I33" t="n">
-        <v>0.72982275</v>
+        <v>0.7287434</v>
       </c>
       <c r="J33" t="n">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="K33" t="n">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="L33" t="n">
-        <v>0.773622835294118</v>
+        <v>0.751418676470588</v>
       </c>
       <c r="M33" t="n">
-        <v>0.77352455</v>
+        <v>0.7720493</v>
       </c>
       <c r="N33" t="n">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="O33" t="n">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="P33" t="n">
-        <v>0.782577547058824</v>
+        <v>0.759438805882353</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.79190015</v>
+        <v>0.7780406</v>
       </c>
       <c r="R33" t="n">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="S33" t="n">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="T33" t="n">
-        <v>0.609721905882353</v>
+        <v>0.573329994117647</v>
       </c>
       <c r="U33" t="n">
         <v>0.5</v>
       </c>
       <c r="V33" t="n">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="W33" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="X33" t="n">
-        <v>0.2558101</v>
+        <v>0.181399358823529</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
       </c>
       <c r="Z33" t="n">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="AA33" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AB33" t="n">
-        <v>35.4</v>
+        <v>52.6</v>
       </c>
       <c r="AC33" t="n">
-        <v>36.8</v>
+        <v>47.8</v>
       </c>
     </row>
     <row r="34">
@@ -3660,70 +3660,70 @@
         <v>89</v>
       </c>
       <c r="H34" t="n">
-        <v>0.775001047058824</v>
+        <v>0.778659370588235</v>
       </c>
       <c r="I34" t="n">
-        <v>0.76700505</v>
+        <v>0.8013412</v>
       </c>
       <c r="J34" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K34" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L34" t="n">
-        <v>0.835925</v>
+        <v>0.835321323529412</v>
       </c>
       <c r="M34" t="n">
-        <v>0.84988195</v>
+        <v>0.8843818</v>
       </c>
       <c r="N34" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="O34" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P34" t="n">
-        <v>0.856712082352941</v>
+        <v>0.854261317647059</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.88046015</v>
+        <v>0.9068543</v>
       </c>
       <c r="R34" t="n">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="S34" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="T34" t="n">
-        <v>0.753515405882353</v>
+        <v>0.596471994117647</v>
       </c>
       <c r="U34" t="n">
-        <v>0.7999901</v>
+        <v>0.5</v>
       </c>
       <c r="V34" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="W34" t="n">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="X34" t="n">
-        <v>0.553277635294118</v>
+        <v>0.230888652941176</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.67578595</v>
+        <v>0</v>
       </c>
       <c r="Z34" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AA34" t="n">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="AB34" t="n">
-        <v>14.6</v>
+        <v>23.4</v>
       </c>
       <c r="AC34" t="n">
-        <v>9.4</v>
+        <v>26.8</v>
       </c>
     </row>
     <row r="35">
@@ -3749,70 +3749,70 @@
         <v>35</v>
       </c>
       <c r="H35" t="n">
-        <v>0.698181470588235</v>
+        <v>0.785305229411765</v>
       </c>
       <c r="I35" t="n">
-        <v>0.6907504</v>
+        <v>0.7887753</v>
       </c>
       <c r="J35" t="n">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="K35" t="n">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="L35" t="n">
-        <v>0.775969382352941</v>
+        <v>0.840602870588235</v>
       </c>
       <c r="M35" t="n">
-        <v>0.79007955</v>
+        <v>0.8775153</v>
       </c>
       <c r="N35" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="O35" t="n">
+        <v>13</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0.861505352941176</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0.9059776</v>
+      </c>
+      <c r="R35" t="n">
+        <v>15</v>
+      </c>
+      <c r="S35" t="n">
+        <v>13</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0.790217658823529</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0.832487</v>
+      </c>
+      <c r="V35" t="n">
+        <v>8</v>
+      </c>
+      <c r="W35" t="n">
+        <v>4</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0.698605667058824</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>0.860038</v>
+      </c>
+      <c r="Z35" t="n">
         <v>23</v>
       </c>
-      <c r="P35" t="n">
-        <v>0.809192152941177</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0.84179455</v>
-      </c>
-      <c r="R35" t="n">
-        <v>22</v>
-      </c>
-      <c r="S35" t="n">
-        <v>15</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0.786692494117647</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0.79937605</v>
-      </c>
-      <c r="V35" t="n">
-        <v>6</v>
-      </c>
-      <c r="W35" t="n">
-        <v>9</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0.674441549411765</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0.755936</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>15</v>
-      </c>
       <c r="AA35" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AB35" t="n">
-        <v>20</v>
+        <v>12.4</v>
       </c>
       <c r="AC35" t="n">
-        <v>20.4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36">
@@ -3838,70 +3838,70 @@
         <v>44</v>
       </c>
       <c r="H36" t="n">
-        <v>0.690072582352941</v>
+        <v>0.7425358</v>
       </c>
       <c r="I36" t="n">
-        <v>0.71719735</v>
+        <v>0.7085137</v>
       </c>
       <c r="J36" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K36" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="L36" t="n">
-        <v>0.752078141176471</v>
+        <v>0.813805282352941</v>
       </c>
       <c r="M36" t="n">
-        <v>0.7395819</v>
+        <v>0.8141173</v>
       </c>
       <c r="N36" t="n">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="O36" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="P36" t="n">
-        <v>0.772962958823529</v>
+        <v>0.844501423529412</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.7373954</v>
+        <v>0.8451422</v>
       </c>
       <c r="R36" t="n">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="S36" t="n">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="T36" t="n">
-        <v>0.740718617647059</v>
+        <v>0.772000282352941</v>
       </c>
       <c r="U36" t="n">
-        <v>0.731448</v>
+        <v>0.7665847</v>
       </c>
       <c r="V36" t="n">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="W36" t="n">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="X36" t="n">
-        <v>0.636800391176471</v>
+        <v>0.71774444</v>
       </c>
       <c r="Y36" t="n">
-        <v>0.68444645</v>
+        <v>0.8407069</v>
       </c>
       <c r="Z36" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="AA36" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AB36" t="n">
-        <v>34.6</v>
+        <v>24.4</v>
       </c>
       <c r="AC36" t="n">
-        <v>31.8</v>
+        <v>28.6</v>
       </c>
     </row>
     <row r="37">
@@ -3927,70 +3927,70 @@
         <v>49</v>
       </c>
       <c r="H37" t="n">
-        <v>0.716853794117647</v>
+        <v>0.766305682352941</v>
       </c>
       <c r="I37" t="n">
-        <v>0.72849615</v>
+        <v>0.7985508</v>
       </c>
       <c r="J37" t="n">
         <v>16</v>
       </c>
       <c r="K37" t="n">
+        <v>6</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.835819923529412</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.8708003</v>
+      </c>
+      <c r="N37" t="n">
+        <v>17</v>
+      </c>
+      <c r="O37" t="n">
+        <v>17</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0.863318276470588</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0.8979993</v>
+      </c>
+      <c r="R37" t="n">
+        <v>12</v>
+      </c>
+      <c r="S37" t="n">
         <v>16</v>
       </c>
-      <c r="L37" t="n">
-        <v>0.771213894117647</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0.74935365</v>
-      </c>
-      <c r="N37" t="n">
-        <v>31</v>
-      </c>
-      <c r="O37" t="n">
-        <v>34</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0.788887458823529</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0.7724054</v>
-      </c>
-      <c r="R37" t="n">
-        <v>34</v>
-      </c>
-      <c r="S37" t="n">
-        <v>37</v>
-      </c>
       <c r="T37" t="n">
-        <v>0.758130988235294</v>
+        <v>0.798167164705882</v>
       </c>
       <c r="U37" t="n">
-        <v>0.74503415</v>
+        <v>0.8302025</v>
       </c>
       <c r="V37" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="W37" t="n">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="X37" t="n">
-        <v>0.631036322941177</v>
+        <v>0.718568001764706</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.673585</v>
+        <v>0.8710596</v>
       </c>
       <c r="Z37" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="AA37" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="AB37" t="n">
-        <v>26.2</v>
+        <v>12</v>
       </c>
       <c r="AC37" t="n">
-        <v>28.8</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="38">
@@ -4016,70 +4016,70 @@
         <v>54</v>
       </c>
       <c r="H38" t="n">
-        <v>0.6743002</v>
+        <v>0.735030029411765</v>
       </c>
       <c r="I38" t="n">
-        <v>0.6713679</v>
+        <v>0.6900003</v>
       </c>
       <c r="J38" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="K38" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L38" t="n">
-        <v>0.756344382352941</v>
+        <v>0.802930858823529</v>
       </c>
       <c r="M38" t="n">
-        <v>0.75739295</v>
+        <v>0.7796477</v>
       </c>
       <c r="N38" t="n">
+        <v>34</v>
+      </c>
+      <c r="O38" t="n">
+        <v>44</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0.8327543</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.8348304</v>
+      </c>
+      <c r="R38" t="n">
         <v>36</v>
       </c>
-      <c r="O38" t="n">
-        <v>31</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0.796614370588235</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0.81865075</v>
-      </c>
-      <c r="R38" t="n">
-        <v>30</v>
-      </c>
       <c r="S38" t="n">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="T38" t="n">
-        <v>0.770854858823529</v>
+        <v>0.771291970588235</v>
       </c>
       <c r="U38" t="n">
-        <v>0.7645546</v>
+        <v>0.767861</v>
       </c>
       <c r="V38" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="W38" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="X38" t="n">
-        <v>0.688751613529412</v>
+        <v>0.711115318823529</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.7910477</v>
+        <v>0.8261929</v>
       </c>
       <c r="Z38" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AA38" t="n">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="AB38" t="n">
-        <v>27.8</v>
+        <v>29</v>
       </c>
       <c r="AC38" t="n">
-        <v>27.6</v>
+        <v>32.4</v>
       </c>
     </row>
     <row r="39">
@@ -4105,70 +4105,70 @@
         <v>59</v>
       </c>
       <c r="H39" t="n">
-        <v>0.693134870588235</v>
+        <v>0.756268664705882</v>
       </c>
       <c r="I39" t="n">
-        <v>0.70190705</v>
+        <v>0.7796314</v>
       </c>
       <c r="J39" t="n">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="K39" t="n">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="L39" t="n">
-        <v>0.804999705882353</v>
+        <v>0.822504282352941</v>
       </c>
       <c r="M39" t="n">
-        <v>0.8405655</v>
+        <v>0.8778386</v>
       </c>
       <c r="N39" t="n">
+        <v>24</v>
+      </c>
+      <c r="O39" t="n">
         <v>12</v>
       </c>
-      <c r="O39" t="n">
-        <v>9</v>
-      </c>
       <c r="P39" t="n">
-        <v>0.838055811764706</v>
+        <v>0.852145247058824</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.8762767</v>
+        <v>0.9098079</v>
       </c>
       <c r="R39" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="S39" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="T39" t="n">
-        <v>0.786173752941176</v>
+        <v>0.792237682352941</v>
       </c>
       <c r="U39" t="n">
-        <v>0.8080092</v>
+        <v>0.8219103</v>
       </c>
       <c r="V39" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="W39" t="n">
         <v>6</v>
       </c>
       <c r="X39" t="n">
-        <v>0.666679184117647</v>
+        <v>0.69015599</v>
       </c>
       <c r="Y39" t="n">
-        <v>0.8006991</v>
+        <v>0.8699923</v>
       </c>
       <c r="Z39" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AA39" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AB39" t="n">
-        <v>15.8</v>
+        <v>20</v>
       </c>
       <c r="AC39" t="n">
-        <v>13.6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40">
@@ -4194,70 +4194,70 @@
         <v>64</v>
       </c>
       <c r="H40" t="n">
-        <v>0.639682170588235</v>
+        <v>0.702506694117647</v>
       </c>
       <c r="I40" t="n">
-        <v>0.6366976</v>
+        <v>0.6375664</v>
       </c>
       <c r="J40" t="n">
+        <v>48</v>
+      </c>
+      <c r="K40" t="n">
         <v>53</v>
       </c>
-      <c r="K40" t="n">
-        <v>51</v>
-      </c>
       <c r="L40" t="n">
-        <v>0.704145429411765</v>
+        <v>0.777981811764706</v>
       </c>
       <c r="M40" t="n">
-        <v>0.70836785</v>
+        <v>0.7391356</v>
       </c>
       <c r="N40" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O40" t="n">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P40" t="n">
-        <v>0.728681988235294</v>
+        <v>0.808639723529412</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.7265227</v>
+        <v>0.7764864</v>
       </c>
       <c r="R40" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="S40" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="T40" t="n">
-        <v>0.721199364705882</v>
+        <v>0.755697052941177</v>
       </c>
       <c r="U40" t="n">
-        <v>0.72460685</v>
+        <v>0.7471133</v>
       </c>
       <c r="V40" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="W40" t="n">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="X40" t="n">
-        <v>0.612872393529412</v>
+        <v>0.705984012352941</v>
       </c>
       <c r="Y40" t="n">
-        <v>0.67298265</v>
+        <v>0.802715</v>
       </c>
       <c r="Z40" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="AA40" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="AB40" t="n">
-        <v>43.2</v>
+        <v>37.6</v>
       </c>
       <c r="AC40" t="n">
-        <v>44.6</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41">
@@ -4283,70 +4283,70 @@
         <v>69</v>
       </c>
       <c r="H41" t="n">
-        <v>0.698552411764706</v>
+        <v>0.767902305882353</v>
       </c>
       <c r="I41" t="n">
-        <v>0.70376135</v>
+        <v>0.7371325</v>
       </c>
       <c r="J41" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="K41" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L41" t="n">
-        <v>0.776741182352941</v>
+        <v>0.838898752941176</v>
       </c>
       <c r="M41" t="n">
-        <v>0.78999845</v>
+        <v>0.8519646</v>
       </c>
       <c r="N41" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="O41" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="P41" t="n">
-        <v>0.807777270588235</v>
+        <v>0.865539476470588</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.8214447</v>
+        <v>0.8933366</v>
       </c>
       <c r="R41" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="S41" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="T41" t="n">
-        <v>0.783214917647059</v>
+        <v>0.779614629411765</v>
       </c>
       <c r="U41" t="n">
-        <v>0.79073435</v>
+        <v>0.7563538</v>
       </c>
       <c r="V41" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="W41" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="X41" t="n">
-        <v>0.730003808823529</v>
+        <v>0.752095157647059</v>
       </c>
       <c r="Y41" t="n">
-        <v>0.83615935</v>
+        <v>0.9077785</v>
       </c>
       <c r="Z41" t="n">
         <v>5</v>
       </c>
       <c r="AA41" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AB41" t="n">
-        <v>18.4</v>
+        <v>11.4</v>
       </c>
       <c r="AC41" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="42">
@@ -4372,70 +4372,70 @@
         <v>74</v>
       </c>
       <c r="H42" t="n">
-        <v>0.704800182352941</v>
+        <v>0.778628811764706</v>
       </c>
       <c r="I42" t="n">
-        <v>0.70403275</v>
+        <v>0.8128997</v>
       </c>
       <c r="J42" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K42" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="L42" t="n">
-        <v>0.783821341176471</v>
+        <v>0.848045694117647</v>
       </c>
       <c r="M42" t="n">
-        <v>0.8079251</v>
+        <v>0.9039618</v>
       </c>
       <c r="N42" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="O42" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="P42" t="n">
-        <v>0.821063158823529</v>
+        <v>0.871493729411765</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.85012635</v>
+        <v>0.9344965</v>
       </c>
       <c r="R42" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="S42" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="T42" t="n">
-        <v>0.796414117647059</v>
+        <v>0.794363447058824</v>
       </c>
       <c r="U42" t="n">
-        <v>0.8086329</v>
+        <v>0.8055011</v>
       </c>
       <c r="V42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="W42" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="X42" t="n">
-        <v>0.728315705294118</v>
+        <v>0.752073345294118</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.83877645</v>
+        <v>0.919003</v>
       </c>
       <c r="Z42" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AA42" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AB42" t="n">
-        <v>12.2</v>
+        <v>6.2</v>
       </c>
       <c r="AC42" t="n">
-        <v>13.6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43">
@@ -4461,70 +4461,70 @@
         <v>79</v>
       </c>
       <c r="H43" t="n">
-        <v>0.698616923529412</v>
+        <v>0.752732835294118</v>
       </c>
       <c r="I43" t="n">
-        <v>0.71297045</v>
+        <v>0.7605523</v>
       </c>
       <c r="J43" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="K43" t="n">
+        <v>18</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.823953541176471</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.8444056</v>
+      </c>
+      <c r="N43" t="n">
         <v>22</v>
       </c>
-      <c r="L43" t="n">
-        <v>0.762919964705882</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.7396746</v>
-      </c>
-      <c r="N43" t="n">
-        <v>34</v>
-      </c>
       <c r="O43" t="n">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="P43" t="n">
-        <v>0.784359405882353</v>
+        <v>0.855610017647059</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.74141785</v>
+        <v>0.8740885</v>
       </c>
       <c r="R43" t="n">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="S43" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="T43" t="n">
-        <v>0.742479147058824</v>
+        <v>0.775409794117647</v>
       </c>
       <c r="U43" t="n">
-        <v>0.74436915</v>
+        <v>0.7674664</v>
       </c>
       <c r="V43" t="n">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="W43" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="X43" t="n">
-        <v>0.663293878235294</v>
+        <v>0.755667622352941</v>
       </c>
       <c r="Y43" t="n">
-        <v>0.67568905</v>
+        <v>0.8787166</v>
       </c>
       <c r="Z43" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="AA43" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="AB43" t="n">
-        <v>29.2</v>
+        <v>16.8</v>
       </c>
       <c r="AC43" t="n">
-        <v>31.6</v>
+        <v>17.8</v>
       </c>
     </row>
     <row r="44">
@@ -4550,70 +4550,70 @@
         <v>84</v>
       </c>
       <c r="H44" t="n">
-        <v>0.679434535294118</v>
+        <v>0.744469364705882</v>
       </c>
       <c r="I44" t="n">
-        <v>0.68071425</v>
+        <v>0.7138851</v>
       </c>
       <c r="J44" t="n">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="K44" t="n">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="L44" t="n">
-        <v>0.762509452941176</v>
+        <v>0.817162617647059</v>
       </c>
       <c r="M44" t="n">
-        <v>0.7546377</v>
+        <v>0.8036176</v>
       </c>
       <c r="N44" t="n">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="O44" t="n">
         <v>33</v>
       </c>
       <c r="P44" t="n">
-        <v>0.801737670588235</v>
+        <v>0.847732947058824</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.8084525</v>
+        <v>0.8437961</v>
       </c>
       <c r="R44" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="S44" t="n">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="T44" t="n">
-        <v>0.781078464705882</v>
+        <v>0.776907288235294</v>
       </c>
       <c r="U44" t="n">
-        <v>0.7792163</v>
+        <v>0.7540264</v>
       </c>
       <c r="V44" t="n">
         <v>14</v>
       </c>
       <c r="W44" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="X44" t="n">
-        <v>0.733589189411765</v>
+        <v>0.751141204705882</v>
       </c>
       <c r="Y44" t="n">
-        <v>0.837617</v>
+        <v>0.884732</v>
       </c>
       <c r="Z44" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AA44" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AB44" t="n">
-        <v>24.2</v>
+        <v>21.4</v>
       </c>
       <c r="AC44" t="n">
-        <v>26</v>
+        <v>27.2</v>
       </c>
     </row>
     <row r="45">
@@ -4639,70 +4639,70 @@
         <v>89</v>
       </c>
       <c r="H45" t="n">
-        <v>0.702526005882353</v>
+        <v>0.771815776470588</v>
       </c>
       <c r="I45" t="n">
-        <v>0.7099583</v>
+        <v>0.7523663</v>
       </c>
       <c r="J45" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="K45" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="L45" t="n">
-        <v>0.780006882352941</v>
+        <v>0.844263764705882</v>
       </c>
       <c r="M45" t="n">
-        <v>0.79882615</v>
+        <v>0.8455526</v>
       </c>
       <c r="N45" t="n">
+        <v>7</v>
+      </c>
+      <c r="O45" t="n">
+        <v>23</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0.870235858823529</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0.8930748</v>
+      </c>
+      <c r="R45" t="n">
+        <v>8</v>
+      </c>
+      <c r="S45" t="n">
         <v>21</v>
       </c>
-      <c r="O45" t="n">
-        <v>18</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0.810574664705882</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>0.8320164</v>
-      </c>
-      <c r="R45" t="n">
-        <v>20</v>
-      </c>
-      <c r="S45" t="n">
-        <v>19</v>
-      </c>
       <c r="T45" t="n">
-        <v>0.781921588235294</v>
+        <v>0.774211452941176</v>
       </c>
       <c r="U45" t="n">
-        <v>0.7740156</v>
+        <v>0.7653075</v>
       </c>
       <c r="V45" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="W45" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="X45" t="n">
-        <v>0.749034801176471</v>
+        <v>0.767668053529412</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.8453855</v>
+        <v>0.9093189</v>
       </c>
       <c r="Z45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB45" t="n">
-        <v>15.8</v>
+        <v>9</v>
       </c>
       <c r="AC45" t="n">
-        <v>16.2</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="46">
@@ -4728,70 +4728,70 @@
         <v>35</v>
       </c>
       <c r="H46" t="n">
-        <v>0.699455858823529</v>
+        <v>0.785564188235294</v>
       </c>
       <c r="I46" t="n">
-        <v>0.6922701</v>
+        <v>0.7887753</v>
       </c>
       <c r="J46" t="n">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="K46" t="n">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="L46" t="n">
-        <v>0.778257211764706</v>
+        <v>0.841398305882353</v>
       </c>
       <c r="M46" t="n">
-        <v>0.79208825</v>
+        <v>0.8781369</v>
       </c>
       <c r="N46" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="O46" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="P46" t="n">
-        <v>0.811062558823529</v>
+        <v>0.8623814</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.8417724</v>
+        <v>0.9069481</v>
       </c>
       <c r="R46" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="S46" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="T46" t="n">
-        <v>0.786792817647059</v>
+        <v>0.792043817647059</v>
       </c>
       <c r="U46" t="n">
-        <v>0.80076525</v>
+        <v>0.8334586</v>
       </c>
       <c r="V46" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="W46" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="X46" t="n">
-        <v>0.672228287058824</v>
+        <v>0.696879421764706</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.7571145</v>
+        <v>0.8608959</v>
       </c>
       <c r="Z46" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="AA46" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB46" t="n">
-        <v>18</v>
+        <v>11.6</v>
       </c>
       <c r="AC46" t="n">
-        <v>19.4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47">
@@ -4817,70 +4817,70 @@
         <v>44</v>
       </c>
       <c r="H47" t="n">
-        <v>0.691157235294118</v>
+        <v>0.740888641176471</v>
       </c>
       <c r="I47" t="n">
-        <v>0.71750035</v>
+        <v>0.7127114</v>
       </c>
       <c r="J47" t="n">
         <v>35</v>
       </c>
       <c r="K47" t="n">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="L47" t="n">
-        <v>0.753415317647059</v>
+        <v>0.813825411764706</v>
       </c>
       <c r="M47" t="n">
-        <v>0.7397791</v>
+        <v>0.820006</v>
       </c>
       <c r="N47" t="n">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="O47" t="n">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="P47" t="n">
-        <v>0.774311935294118</v>
+        <v>0.845306494117647</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.7378162</v>
+        <v>0.8476547</v>
       </c>
       <c r="R47" t="n">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="S47" t="n">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="T47" t="n">
-        <v>0.740419623529412</v>
+        <v>0.771308094117647</v>
       </c>
       <c r="U47" t="n">
-        <v>0.73091895</v>
+        <v>0.7674878</v>
       </c>
       <c r="V47" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="W47" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="X47" t="n">
-        <v>0.635514852941176</v>
+        <v>0.714723317647059</v>
       </c>
       <c r="Y47" t="n">
-        <v>0.684361</v>
+        <v>0.8444696</v>
       </c>
       <c r="Z47" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>22</v>
+      </c>
+      <c r="AB47" t="n">
         <v>25</v>
       </c>
-      <c r="AA47" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB47" t="n">
-        <v>34.2</v>
-      </c>
       <c r="AC47" t="n">
-        <v>31.4</v>
+        <v>27.2</v>
       </c>
     </row>
     <row r="48">
@@ -4906,70 +4906,70 @@
         <v>49</v>
       </c>
       <c r="H48" t="n">
-        <v>0.716742105882353</v>
+        <v>0.769226582352941</v>
       </c>
       <c r="I48" t="n">
-        <v>0.72880225</v>
+        <v>0.8004727</v>
       </c>
       <c r="J48" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K48" t="n">
+        <v>5</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.843671005882353</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.8720311</v>
+      </c>
+      <c r="N48" t="n">
+        <v>8</v>
+      </c>
+      <c r="O48" t="n">
         <v>15</v>
       </c>
-      <c r="L48" t="n">
-        <v>0.771317182352941</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0.74685705</v>
-      </c>
-      <c r="N48" t="n">
-        <v>30</v>
-      </c>
-      <c r="O48" t="n">
-        <v>35</v>
-      </c>
       <c r="P48" t="n">
-        <v>0.789015129411765</v>
+        <v>0.870982094117647</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.7727806</v>
+        <v>0.9049646</v>
       </c>
       <c r="R48" t="n">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="S48" t="n">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="T48" t="n">
-        <v>0.759452511764706</v>
+        <v>0.803893941176471</v>
       </c>
       <c r="U48" t="n">
-        <v>0.74638705</v>
+        <v>0.8516484</v>
       </c>
       <c r="V48" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="W48" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="X48" t="n">
-        <v>0.630761911764706</v>
+        <v>0.724494237058824</v>
       </c>
       <c r="Y48" t="n">
-        <v>0.6744629</v>
+        <v>0.8766306</v>
       </c>
       <c r="Z48" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="AA48" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="AB48" t="n">
-        <v>25.6</v>
+        <v>8</v>
       </c>
       <c r="AC48" t="n">
-        <v>27.8</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="49">
@@ -4995,70 +4995,70 @@
         <v>54</v>
       </c>
       <c r="H49" t="n">
-        <v>0.674131747058824</v>
+        <v>0.733289970588235</v>
       </c>
       <c r="I49" t="n">
-        <v>0.6664711</v>
+        <v>0.6815158</v>
       </c>
       <c r="J49" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K49" t="n">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="L49" t="n">
-        <v>0.755706688235294</v>
+        <v>0.802708682352941</v>
       </c>
       <c r="M49" t="n">
-        <v>0.75604905</v>
+        <v>0.7772384</v>
       </c>
       <c r="N49" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="O49" t="n">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="P49" t="n">
-        <v>0.796860376470588</v>
+        <v>0.833564223529412</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.8183886</v>
+        <v>0.8398304</v>
       </c>
       <c r="R49" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="S49" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="T49" t="n">
-        <v>0.769682323529412</v>
+        <v>0.770986064705882</v>
       </c>
       <c r="U49" t="n">
-        <v>0.76537925</v>
+        <v>0.7721185</v>
       </c>
       <c r="V49" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="W49" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="X49" t="n">
-        <v>0.685233022352941</v>
+        <v>0.708909691764706</v>
       </c>
       <c r="Y49" t="n">
-        <v>0.7925441</v>
+        <v>0.8203835</v>
       </c>
       <c r="Z49" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="AA49" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="AB49" t="n">
-        <v>28.8</v>
+        <v>29.8</v>
       </c>
       <c r="AC49" t="n">
-        <v>27.8</v>
+        <v>32.4</v>
       </c>
     </row>
     <row r="50">
@@ -5084,70 +5084,70 @@
         <v>59</v>
       </c>
       <c r="H50" t="n">
-        <v>0.702726682352941</v>
+        <v>0.760530123529412</v>
       </c>
       <c r="I50" t="n">
-        <v>0.7057612</v>
+        <v>0.77692</v>
       </c>
       <c r="J50" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K50" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="L50" t="n">
-        <v>0.808755229411765</v>
+        <v>0.829736294117647</v>
       </c>
       <c r="M50" t="n">
-        <v>0.84250195</v>
+        <v>0.8806985</v>
       </c>
       <c r="N50" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="O50" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="P50" t="n">
-        <v>0.840830923529412</v>
+        <v>0.857980847058823</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.8793372</v>
+        <v>0.9164327</v>
       </c>
       <c r="R50" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="S50" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T50" t="n">
-        <v>0.787706988235294</v>
+        <v>0.798201247058824</v>
       </c>
       <c r="U50" t="n">
-        <v>0.8108196</v>
+        <v>0.8458091</v>
       </c>
       <c r="V50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="W50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X50" t="n">
-        <v>0.662927433529412</v>
+        <v>0.694110262941177</v>
       </c>
       <c r="Y50" t="n">
-        <v>0.8016864</v>
+        <v>0.865939</v>
       </c>
       <c r="Z50" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AA50" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AB50" t="n">
-        <v>13</v>
+        <v>16.6</v>
       </c>
       <c r="AC50" t="n">
-        <v>11</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="51">
@@ -5173,70 +5173,70 @@
         <v>64</v>
       </c>
       <c r="H51" t="n">
-        <v>0.638668064705882</v>
+        <v>0.705213217647059</v>
       </c>
       <c r="I51" t="n">
-        <v>0.6342475</v>
+        <v>0.6350219</v>
       </c>
       <c r="J51" t="n">
+        <v>47</v>
+      </c>
+      <c r="K51" t="n">
         <v>54</v>
       </c>
-      <c r="K51" t="n">
-        <v>52</v>
-      </c>
       <c r="L51" t="n">
-        <v>0.7036029</v>
+        <v>0.781389570588235</v>
       </c>
       <c r="M51" t="n">
-        <v>0.70763345</v>
+        <v>0.7367132</v>
       </c>
       <c r="N51" t="n">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="O51" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P51" t="n">
-        <v>0.728683758823529</v>
+        <v>0.811828235294118</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.72703155</v>
+        <v>0.774538</v>
       </c>
       <c r="R51" t="n">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="S51" t="n">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="T51" t="n">
-        <v>0.722197458823529</v>
+        <v>0.758278664705882</v>
       </c>
       <c r="U51" t="n">
-        <v>0.72396235</v>
+        <v>0.7508702</v>
       </c>
       <c r="V51" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="W51" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="X51" t="n">
-        <v>0.611089984117647</v>
+        <v>0.706782634705882</v>
       </c>
       <c r="Y51" t="n">
-        <v>0.67394025</v>
+        <v>0.8238345</v>
       </c>
       <c r="Z51" t="n">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="AA51" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AB51" t="n">
-        <v>43.2</v>
+        <v>36.2</v>
       </c>
       <c r="AC51" t="n">
-        <v>44.6</v>
+        <v>42.8</v>
       </c>
     </row>
     <row r="52">
@@ -5262,70 +5262,70 @@
         <v>69</v>
       </c>
       <c r="H52" t="n">
-        <v>0.700015458823529</v>
+        <v>0.768201570588235</v>
       </c>
       <c r="I52" t="n">
-        <v>0.70455415</v>
+        <v>0.7365184</v>
       </c>
       <c r="J52" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="K52" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L52" t="n">
-        <v>0.779337335294118</v>
+        <v>0.840087329411765</v>
       </c>
       <c r="M52" t="n">
-        <v>0.79158825</v>
+        <v>0.8540282</v>
       </c>
       <c r="N52" t="n">
+        <v>13</v>
+      </c>
+      <c r="O52" t="n">
+        <v>19</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0.866593658823529</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0.894458</v>
+      </c>
+      <c r="R52" t="n">
+        <v>10</v>
+      </c>
+      <c r="S52" t="n">
+        <v>19</v>
+      </c>
+      <c r="T52" t="n">
+        <v>0.781346311764706</v>
+      </c>
+      <c r="U52" t="n">
+        <v>0.7547495</v>
+      </c>
+      <c r="V52" t="n">
+        <v>9</v>
+      </c>
+      <c r="W52" t="n">
         <v>22</v>
       </c>
-      <c r="O52" t="n">
-        <v>22</v>
-      </c>
-      <c r="P52" t="n">
-        <v>0.809739552941176</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>0.82281365</v>
-      </c>
-      <c r="R52" t="n">
-        <v>21</v>
-      </c>
-      <c r="S52" t="n">
-        <v>21</v>
-      </c>
-      <c r="T52" t="n">
-        <v>0.783941658823529</v>
-      </c>
-      <c r="U52" t="n">
-        <v>0.79109775</v>
-      </c>
-      <c r="V52" t="n">
-        <v>8</v>
-      </c>
-      <c r="W52" t="n">
-        <v>11</v>
-      </c>
       <c r="X52" t="n">
-        <v>0.728706680588235</v>
+        <v>0.751933834117647</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.836923</v>
+        <v>0.9076283</v>
       </c>
       <c r="Z52" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA52" t="n">
         <v>6</v>
       </c>
-      <c r="AA52" t="n">
-        <v>10</v>
-      </c>
       <c r="AB52" t="n">
-        <v>16.6</v>
+        <v>10.6</v>
       </c>
       <c r="AC52" t="n">
-        <v>18.6</v>
+        <v>19.2</v>
       </c>
     </row>
     <row r="53">
@@ -5351,70 +5351,70 @@
         <v>74</v>
       </c>
       <c r="H53" t="n">
-        <v>0.706397170588235</v>
+        <v>0.784116723529412</v>
       </c>
       <c r="I53" t="n">
-        <v>0.7067133</v>
+        <v>0.8137734</v>
       </c>
       <c r="J53" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="K53" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="L53" t="n">
-        <v>0.787811229411765</v>
+        <v>0.851758852941176</v>
       </c>
       <c r="M53" t="n">
-        <v>0.80954735</v>
+        <v>0.9135835</v>
       </c>
       <c r="N53" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="O53" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="P53" t="n">
-        <v>0.824960723529412</v>
+        <v>0.874321235294118</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.85823245</v>
+        <v>0.9365202</v>
       </c>
       <c r="R53" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="S53" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="T53" t="n">
-        <v>0.798918741176471</v>
+        <v>0.796665588235294</v>
       </c>
       <c r="U53" t="n">
-        <v>0.81364615</v>
+        <v>0.8113486</v>
       </c>
       <c r="V53" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="W53" t="n">
+        <v>7</v>
+      </c>
+      <c r="X53" t="n">
+        <v>0.749218414117647</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>0.9188636</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA53" t="n">
         <v>2</v>
       </c>
-      <c r="X53" t="n">
-        <v>0.726030416470588</v>
-      </c>
-      <c r="Y53" t="n">
-        <v>0.8383009</v>
-      </c>
-      <c r="Z53" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA53" t="n">
-        <v>7</v>
-      </c>
       <c r="AB53" t="n">
-        <v>11.2</v>
+        <v>4.8</v>
       </c>
       <c r="AC53" t="n">
-        <v>11.6</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="54">
@@ -5440,70 +5440,70 @@
         <v>79</v>
       </c>
       <c r="H54" t="n">
-        <v>0.698855564705882</v>
+        <v>0.754214288235294</v>
       </c>
       <c r="I54" t="n">
-        <v>0.7142329</v>
+        <v>0.7594741</v>
       </c>
       <c r="J54" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="K54" t="n">
         <v>20</v>
       </c>
       <c r="L54" t="n">
-        <v>0.763853717647059</v>
+        <v>0.827737758823529</v>
       </c>
       <c r="M54" t="n">
-        <v>0.73976595</v>
+        <v>0.841837</v>
       </c>
       <c r="N54" t="n">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="O54" t="n">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="P54" t="n">
-        <v>0.785373705882353</v>
+        <v>0.858530370588235</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.7399257</v>
+        <v>0.8719579</v>
       </c>
       <c r="R54" t="n">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="S54" t="n">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="T54" t="n">
-        <v>0.744694747058824</v>
+        <v>0.778950976470588</v>
       </c>
       <c r="U54" t="n">
-        <v>0.7457392</v>
+        <v>0.7679653</v>
       </c>
       <c r="V54" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="W54" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="X54" t="n">
-        <v>0.663409204705882</v>
+        <v>0.756020533529412</v>
       </c>
       <c r="Y54" t="n">
-        <v>0.676363</v>
+        <v>0.8794646</v>
       </c>
       <c r="Z54" t="n">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="AA54" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AB54" t="n">
-        <v>28</v>
+        <v>14.8</v>
       </c>
       <c r="AC54" t="n">
-        <v>30.6</v>
+        <v>17.8</v>
       </c>
     </row>
     <row r="55">
@@ -5529,70 +5529,70 @@
         <v>84</v>
       </c>
       <c r="H55" t="n">
-        <v>0.679834523529412</v>
+        <v>0.746781588235294</v>
       </c>
       <c r="I55" t="n">
-        <v>0.6809157</v>
+        <v>0.7077343</v>
       </c>
       <c r="J55" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="K55" t="n">
         <v>42</v>
       </c>
       <c r="L55" t="n">
-        <v>0.764118776470588</v>
+        <v>0.820134194117647</v>
       </c>
       <c r="M55" t="n">
-        <v>0.75771985</v>
+        <v>0.8027594</v>
       </c>
       <c r="N55" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="O55" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P55" t="n">
-        <v>0.804127135294118</v>
+        <v>0.850464835294118</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.81462785</v>
+        <v>0.8447568</v>
       </c>
       <c r="R55" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="S55" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="T55" t="n">
-        <v>0.782125464705882</v>
+        <v>0.779630952941176</v>
       </c>
       <c r="U55" t="n">
-        <v>0.7818627</v>
+        <v>0.7525153</v>
       </c>
       <c r="V55" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="W55" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="X55" t="n">
-        <v>0.731490468823529</v>
+        <v>0.751705134117647</v>
       </c>
       <c r="Y55" t="n">
-        <v>0.83889785</v>
+        <v>0.8823467</v>
       </c>
       <c r="Z55" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AA55" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AB55" t="n">
-        <v>22.8</v>
+        <v>19</v>
       </c>
       <c r="AC55" t="n">
-        <v>23</v>
+        <v>28.6</v>
       </c>
     </row>
     <row r="56">
@@ -5618,70 +5618,70 @@
         <v>89</v>
       </c>
       <c r="H56" t="n">
-        <v>0.703428094117647</v>
+        <v>0.774484629411765</v>
       </c>
       <c r="I56" t="n">
-        <v>0.7106544</v>
+        <v>0.7517143</v>
       </c>
       <c r="J56" t="n">
+        <v>11</v>
+      </c>
+      <c r="K56" t="n">
+        <v>24</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0.846459194117647</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0.8487826</v>
+      </c>
+      <c r="N56" t="n">
+        <v>5</v>
+      </c>
+      <c r="O56" t="n">
         <v>22</v>
       </c>
-      <c r="K56" t="n">
-        <v>23</v>
-      </c>
-      <c r="L56" t="n">
-        <v>0.782969388235294</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0.80033635</v>
-      </c>
-      <c r="N56" t="n">
-        <v>19</v>
-      </c>
-      <c r="O56" t="n">
+      <c r="P56" t="n">
+        <v>0.872096858823529</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0.8978293</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
         <v>17</v>
       </c>
-      <c r="P56" t="n">
-        <v>0.813297205882353</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>0.833626</v>
-      </c>
-      <c r="R56" t="n">
-        <v>17</v>
-      </c>
-      <c r="S56" t="n">
-        <v>18</v>
-      </c>
       <c r="T56" t="n">
-        <v>0.783298205882353</v>
+        <v>0.777128564705882</v>
       </c>
       <c r="U56" t="n">
-        <v>0.77650545</v>
+        <v>0.7625117</v>
       </c>
       <c r="V56" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="W56" t="n">
         <v>17</v>
       </c>
       <c r="X56" t="n">
-        <v>0.747098651764706</v>
+        <v>0.768238478823529</v>
       </c>
       <c r="Y56" t="n">
-        <v>0.8447881</v>
+        <v>0.9095465</v>
       </c>
       <c r="Z56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AA56" t="n">
         <v>3</v>
       </c>
       <c r="AB56" t="n">
-        <v>13.8</v>
+        <v>6.8</v>
       </c>
       <c r="AC56" t="n">
-        <v>15.6</v>
+        <v>16.6</v>
       </c>
     </row>
   </sheetData>
